--- a/sites/build-and-test-web-data-collection-form/excel-samples/sample01.xlsx
+++ b/sites/build-and-test-web-data-collection-form/excel-samples/sample01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhiming\Documents\GitHub\vmiis\projects\sites\133\m\excel-samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhiming\Documents\GitHub\vmiis\projects\sites\build-and-test-web-data-collection-form\excel-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5450041-CF1C-4F39-B1CD-05BDD8A0D30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F361D2-573C-4AE7-AC46-5E08D3C0C6F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD08BBD7-CB19-4352-8346-387B013CAEB4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Field Type</t>
   </si>
@@ -67,12 +67,6 @@
     <t>Last_Name</t>
   </si>
   <si>
-    <t>Start Position (12=100%)</t>
-  </si>
-  <si>
-    <t>End Position (12=100%)</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -115,7 +109,7 @@
     <t>Sample01</t>
   </si>
   <si>
-    <t>NSW,QLD</t>
+    <t>/,NSW,VIC,QLD,WA,SA,TAS,ACT,NT</t>
   </si>
 </sst>
 </file>
@@ -467,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899FB340-2124-4D82-9F9F-D93253F4796E}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,11 +475,9 @@
     <col min="6" max="6" width="38.42578125" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="29.140625" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -493,31 +485,25 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -531,16 +517,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -554,59 +534,41 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -641,15 +603,15 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -676,23 +638,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
